--- a/data/trans_dic/P55$amigo-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55$amigo-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0832898696639017</v>
+        <v>0.08328986966390171</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06650894438818573</v>
@@ -715,10 +715,10 @@
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.03396683618559248</v>
+        <v>0.03592852915293526</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02490925213976726</v>
+        <v>0.02466507376660365</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04679739641578011</v>
+        <v>0.04444971475949545</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01726407030010866</v>
+        <v>0.01594965249094401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008702617292453413</v>
+        <v>0.008832187326859288</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05189410140252997</v>
+        <v>0.0520547679330473</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09592235266481887</v>
+        <v>0.09475918082695267</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2492053400315198</v>
+        <v>0.2664602140487196</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1582193598337106</v>
+        <v>0.1700049384738158</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1435399066950619</v>
+        <v>0.1380964344504148</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07621284039390774</v>
+        <v>0.08974767517065188</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08943696747266933</v>
+        <v>0.08858360733613224</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1410712964048788</v>
+        <v>0.1379850848788666</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.100616143442127</v>
+        <v>0.103157227377541</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1095369078248931</v>
+        <v>0.1188282287034888</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07435404078756913</v>
+        <v>0.07260777938486269</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1283862130794486</v>
+        <v>0.128312164843444</v>
       </c>
     </row>
     <row r="7">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009618070427682089</v>
+        <v>0.00993667464716771</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -858,22 +858,22 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006603676278462813</v>
+        <v>0.006614183072883682</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02716156102880008</v>
+        <v>0.02754226672521411</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003404285916420093</v>
+        <v>0.003402567559697885</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.00769476071919411</v>
+        <v>0.004716947868943145</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02518877729773827</v>
+        <v>0.02546966947911592</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05992337283978407</v>
+        <v>0.0816406691527277</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0549485165035688</v>
+        <v>0.05375378795326986</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04070846277387086</v>
+        <v>0.04880205844344213</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06007902190986543</v>
+        <v>0.06176569837816401</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03577551766174681</v>
+        <v>0.03595952938904493</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03638485136497815</v>
+        <v>0.03173616563466405</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06614822901164981</v>
+        <v>0.07181652887588923</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07077396973905525</v>
+        <v>0.0692503446281876</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02774954761193678</v>
+        <v>0.03138824499351494</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02797095089840717</v>
+        <v>0.02805104889971398</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04694567398547458</v>
+        <v>0.04615198176154099</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05921378094944382</v>
+        <v>0.05754071396799244</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.02703546515635229</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05284751924604276</v>
+        <v>0.05284751924604277</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02082578960281061</v>
@@ -979,37 +979,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007287621290187783</v>
+        <v>0.007113892233373203</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02193996986406976</v>
+        <v>0.02322330016561047</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009226009984120122</v>
+        <v>0.009072933232356428</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003569326883002786</v>
+        <v>0.00352408567753906</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009384709233459113</v>
+        <v>0.009245450066440087</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03671899213613122</v>
+        <v>0.0357756019791508</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00958602821989999</v>
+        <v>0.009108090189088055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007507876268307861</v>
+        <v>0.00715843417598106</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009160072483910379</v>
+        <v>0.00921212496459263</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03688981775041989</v>
+        <v>0.03632683435669062</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05156814449601629</v>
+        <v>0.04458187618541827</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08767028858283824</v>
+        <v>0.09237633340162808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03425978001441873</v>
+        <v>0.03380395760645717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07308459109463471</v>
+        <v>0.07632530372055045</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05010127700810785</v>
+        <v>0.05029425240250963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03103304459240482</v>
+        <v>0.0306026047777139</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05613101291122055</v>
+        <v>0.05399922735104487</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07452073276881319</v>
+        <v>0.07377283023099183</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03891674917973339</v>
+        <v>0.03986961977275038</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04168666720652514</v>
+        <v>0.03946599752150104</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0413196162386994</v>
+        <v>0.04269545784466733</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06639054004749415</v>
+        <v>0.06968325988480063</v>
       </c>
     </row>
     <row r="13">
@@ -1329,10 +1329,10 @@
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>1870</v>
+        <v>1978</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3768</v>
+        <v>3579</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1889</v>
+        <v>1746</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>7036</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="7">
@@ -1364,38 +1364,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4008</v>
+        <v>3960</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11328</v>
+        <v>12112</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>8712</v>
+        <v>9361</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9712</v>
+        <v>9344</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5313</v>
+        <v>6257</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7346</v>
+        <v>7276</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11359</v>
+        <v>11110</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11012</v>
+        <v>11290</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12616</v>
+        <v>13686</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8438</v>
+        <v>8239</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17407</v>
+        <v>17397</v>
       </c>
     </row>
     <row r="8">
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1097</v>
+        <v>1133</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7516</v>
+        <v>7622</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>1057</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2119</v>
+        <v>1299</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9843</v>
+        <v>9953</v>
       </c>
     </row>
     <row r="11">
@@ -1542,40 +1542,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5081</v>
+        <v>6923</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5534</v>
+        <v>5414</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3669</v>
+        <v>4398</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6853</v>
+        <v>7045</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5841</v>
+        <v>5871</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7634</v>
+        <v>6659</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12252</v>
+        <v>13302</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>19585</v>
+        <v>19163</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6883</v>
+        <v>7786</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>8686</v>
+        <v>8711</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12926</v>
+        <v>12708</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>23140</v>
+        <v>22486</v>
       </c>
     </row>
     <row r="12">
@@ -1681,37 +1681,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3711</v>
+        <v>3928</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2130</v>
+        <v>2095</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2509</v>
+        <v>2472</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13118</v>
+        <v>12781</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3427</v>
+        <v>3256</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3196</v>
+        <v>3047</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3562</v>
+        <v>3582</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19417</v>
+        <v>19121</v>
       </c>
     </row>
     <row r="15">
@@ -1722,40 +1722,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6527</v>
+        <v>5643</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12815</v>
+        <v>13502</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4161</v>
+        <v>4106</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12360</v>
+        <v>12908</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11569</v>
+        <v>11614</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8675</v>
+        <v>8554</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15007</v>
+        <v>14437</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26622</v>
+        <v>26355</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13913</v>
+        <v>14253</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>17746</v>
+        <v>16801</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>16066</v>
+        <v>16601</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>34945</v>
+        <v>36679</v>
       </c>
     </row>
     <row r="16">
